--- a/data_excel/748.xlsx
+++ b/data_excel/748.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>我的</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -590,8 +594,8 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
